--- a/Reading/Words_FundamentalsOfComputerGraphics.docx.xlsx
+++ b/Reading/Words_FundamentalsOfComputerGraphics.docx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">synthetic</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t xml:space="preserve">the strength of something, for example light, that can be measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compositing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不透明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orthographic projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正投影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斜的</t>
   </si>
 </sst>
 </file>
@@ -70,6 +94,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -90,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,15 +186,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,6 +244,38 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Reading/Words_FundamentalsOfComputerGraphics.docx.xlsx
+++ b/Reading/Words_FundamentalsOfComputerGraphics.docx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">synthetic</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve">斜的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barycentric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elaborate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阐述</t>
   </si>
 </sst>
 </file>
@@ -186,16 +198,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,6 +287,22 @@
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
